--- a/ds/2des/03-bcd/aula08/alugueis.xlsx
+++ b/ds/2des/03-bcd/aula08/alugueis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\03-bcd\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEB028-D16A-4561-A5DB-EA15B8FD0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94A0A4-9BDD-456E-91EC-B56616332965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E419D9C-C6E6-4CE1-807D-FBBF649B5E75}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
@@ -873,24 +873,24 @@
         <v>18</v>
       </c>
       <c r="I6" s="1">
-        <v>45381</v>
+        <v>45351</v>
       </c>
       <c r="J6" s="1">
-        <v>45381</v>
+        <v>45351</v>
       </c>
       <c r="K6" s="1">
-        <v>45389</v>
+        <v>45358</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -919,24 +919,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="1">
-        <v>45367</v>
+        <v>45338</v>
       </c>
       <c r="J7" s="1">
-        <v>45367</v>
+        <v>45338</v>
       </c>
       <c r="K7" s="1">
-        <v>45407</v>
+        <v>45376</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,24 +965,24 @@
         <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>45355</v>
+        <v>45327</v>
       </c>
       <c r="J8" s="1">
-        <v>45356</v>
+        <v>45327</v>
       </c>
       <c r="K8" s="1">
-        <v>45392</v>
+        <v>45361</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,24 +1011,24 @@
         <v>18</v>
       </c>
       <c r="I9" s="1">
-        <v>45376</v>
+        <v>45347</v>
       </c>
       <c r="J9" s="1">
-        <v>45376</v>
+        <v>45347</v>
       </c>
       <c r="K9" s="1">
-        <v>45384</v>
+        <v>45353</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,24 +1057,24 @@
         <v>12</v>
       </c>
       <c r="I10" s="1">
-        <v>45366</v>
+        <v>45337</v>
       </c>
       <c r="J10" s="1">
-        <v>45366</v>
+        <v>45337</v>
       </c>
       <c r="K10" s="1">
-        <v>45401</v>
+        <v>45370</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1103,24 +1103,24 @@
         <v>18</v>
       </c>
       <c r="I11" s="1">
-        <v>45355</v>
+        <v>45326</v>
       </c>
       <c r="J11" s="1">
-        <v>45355</v>
+        <v>45326</v>
       </c>
       <c r="K11" s="1">
-        <v>45392</v>
+        <v>45361</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1149,24 +1149,24 @@
         <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>45375</v>
+        <v>45345</v>
       </c>
       <c r="J12" s="1">
-        <v>45375</v>
+        <v>45346</v>
       </c>
       <c r="K12" s="1">
-        <v>45412</v>
+        <v>45381</v>
       </c>
       <c r="L12" s="2">
         <f>K12-J12</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
         <v>47</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1195,24 +1195,24 @@
         <v>16</v>
       </c>
       <c r="I13" s="1">
-        <v>45378</v>
+        <v>45349</v>
       </c>
       <c r="J13" s="1">
-        <v>45378</v>
+        <v>45349</v>
       </c>
       <c r="K13" s="1">
-        <v>45386</v>
+        <v>45354</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1241,24 +1241,24 @@
         <v>14</v>
       </c>
       <c r="I14" s="1">
-        <v>45381</v>
+        <v>45351</v>
       </c>
       <c r="J14" s="1">
-        <v>45381</v>
+        <v>45351</v>
       </c>
       <c r="K14" s="1">
-        <v>45386</v>
+        <v>45354</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1287,24 +1287,24 @@
         <v>12</v>
       </c>
       <c r="I15" s="1">
-        <v>45352</v>
+        <v>45324</v>
       </c>
       <c r="J15" s="1">
-        <v>45353</v>
+        <v>45324</v>
       </c>
       <c r="K15" s="1">
-        <v>45389</v>
+        <v>45358</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1333,24 +1333,24 @@
         <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>45356</v>
+        <v>45327</v>
       </c>
       <c r="J16" s="1">
-        <v>45356</v>
+        <v>45327</v>
       </c>
       <c r="K16" s="1">
-        <v>45397</v>
+        <v>45366</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="1"/>
-        <v>4100</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1379,24 +1379,24 @@
         <v>16</v>
       </c>
       <c r="I17" s="1">
-        <v>45359</v>
+        <v>45330</v>
       </c>
       <c r="J17" s="1">
-        <v>45359</v>
+        <v>45330</v>
       </c>
       <c r="K17" s="1">
-        <v>45397</v>
+        <v>45366</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="1"/>
-        <v>3800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1425,24 +1425,24 @@
         <v>18</v>
       </c>
       <c r="I18" s="1">
-        <v>45362</v>
+        <v>45333</v>
       </c>
       <c r="J18" s="1">
-        <v>45362</v>
+        <v>45333</v>
       </c>
       <c r="K18" s="1">
-        <v>45397</v>
+        <v>45366</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1479,14 +1479,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2">
         <f ca="1">TODAY()-J19</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" t="s">
         <v>48</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1560</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>45368</v>
+        <v>45367</v>
       </c>
       <c r="J20" s="1">
         <v>45368</v>
@@ -1523,14 +1523,14 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2">
         <f t="shared" ref="L20:L23" ca="1" si="2">TODAY()-J20</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1559,22 +1559,22 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>45356</v>
+        <v>45376</v>
       </c>
       <c r="J21" s="1">
-        <v>45356</v>
+        <v>45376</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M21" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1603,22 +1603,22 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>45365</v>
+        <v>45379</v>
       </c>
       <c r="J22" s="1">
-        <v>45365</v>
+        <v>45379</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M22" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1655,14 +1655,14 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1701,10 +1701,7 @@
       <c r="M24" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1742,10 +1739,7 @@
       <c r="M25" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1783,10 +1777,7 @@
       <c r="M26" t="s">
         <v>49</v>
       </c>
-      <c r="N26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
